--- a/csv/rf/rf_pc200fda_final.xlsx
+++ b/csv/rf/rf_pc200fda_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.014344382763731173</v>
+        <v>0.011340230290662862</v>
       </c>
     </row>
   </sheetData>
@@ -218,13 +218,13 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -247,13 +247,13 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n">
         <v>35.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -273,10 +273,10 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
     </row>
   </sheetData>
